--- a/output/size_tables_yoox.xlsx
+++ b/output/size_tables_yoox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDA\test\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1538008F-4B57-40D1-AA9F-C58C0BE2F4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E67F672-3C6B-449E-83D7-49CE7AD93EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="3375" windowWidth="12255" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="110">
   <si>
     <t>사이즈</t>
   </si>
@@ -330,11 +330,35 @@
     <t>40-41</t>
   </si>
   <si>
-    <t>남성 의류</t>
+    <t>여성 반팔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>여성 의류</t>
+    <t>여성 긴팔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성 반바지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성 긴바지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성 긴바지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성 반바지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성 긴팔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성 반팔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -410,23 +434,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,522 +750,1766 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:AZ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AX22" sqref="AX22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.58203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2"/>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>78</v>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ10" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="Y12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="AF12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="AG12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="AN12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="AQ12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="AU12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="AW12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="AX12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="AY12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="AZ12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A13:G13"/>
+  <mergeCells count="8">
+    <mergeCell ref="AF1:AL1"/>
+    <mergeCell ref="AM1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
